--- a/frontend-audita/public/assets/content/eng-dados/bibliografia/1-banco-dados/flash_cards_banco_dados.xlsx
+++ b/frontend-audita/public/assets/content/eng-dados/bibliografia/1-banco-dados/flash_cards_banco_dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="222">
   <si>
     <t xml:space="preserve">pergunta</t>
   </si>
@@ -280,7 +280,430 @@
     <t xml:space="preserve">Quais são os comandos da DDL (Data Definition Language)?</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE, DROP, ALTER, TRUNCATE, RENAME</t>
+    <t xml:space="preserve">CREATE, DROP, ALTER, TRUNCATE, RENAME.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os comandos da DML (Data Manipulation  Language)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT, INSERT, UPDATE, DELETE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os comandos da DTL (Data Transaction Language) ou TCL (Transaction Control Language)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMIT, ROLLBACK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os comandos da DCL (Data Control  Language)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT, REVOKE.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Qual é a diferença entre DTL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Data Transaction Language) eTCL (Transaction Control Language)?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma, DTL também é conhecida como TCL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um dado textual em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Também conhecido como literal, é uma cadeia de caracteres fixo (CHAR(n)) ou variável (VARCHAR(n)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a diferença entre CHAR(n) e VARCHAR(n)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAR(n) tem um tamanho fixo de n caracteres, enquanto VARCHAR(n) tem um tamanho variável até n caracteres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um CLOB em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character Large Object, um tipo de texto capaz de armazenar textos gigantescos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como são inseridos textos diretamente no banco de dados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textos são inseridos entre aspas simples e são case sensitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os tipos de dados numéricos em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluem números inteiros (INTEGER, INT, SMALLINT) e números reais (FLOAT, REAL, DOUBLE PRECISION);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a precisão e a escala de um números?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisão é o número total de dígitos e a escala é o número de dígitos após o ponto decimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um tipo de dado binário em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma cadeia de bits que pode ter tamanho fixo (BIT(n)) ou variável (BIT VARYING(n)), incluindo BLOBs (Binary Large Object).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve um BLOB em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para armazenar grandes quantidades de bits, como arquivos de fotos, documentos, softwares, vídeos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são tipos de dados booleanos em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados que têm como valores tradicionais TRUE(1) ou FALSE(0).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que representa um valor TRUE e um valor FALSE em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE é representado por 1 (00000001) e FALSE por 0 (00000000).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a Lógica de Três Valores no SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além de TRUE e FALSE, SQL trabalha com o valor NULL para representar um valor que está faltando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as três interpretações possíveis para um valor NULL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor desconhecido, valor indisponível e valor não aplicável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é uma operação AND em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O resultado é TRUE somente se ambas as expressões forem TRUE; caso contrário, o resultado é FALSE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é uma operação OR em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O resultado é TRUE se pelo menos uma das expressões for TRUE; caso contrário, o resultado é FALSE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é uma operação NOT em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverte o valor de uma expressão lógica: se a expressão original é TRUE, a negação será FALSE, e vice-versa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o SQL trata comparações envolvendo NULL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando um NULL está envolvido em uma operação de comparação, o resultado é UNKNOWN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os possíveis resultados das expressões lógicas de três valores em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE, FALSE e UNKNOWN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o tipo de dado para datas em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE, que possui componentes DAY, MONTH e YEAR na forma DD-MM-YYYY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os componentes do tipo de dado TIME em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOUR, MINUTE e SECOND na forma HH:MM:SS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um tipo de dado TIMESTAMP em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um tipo que combina data e hora, podendo incluir o fuso horário (Ex: 27-09-2008 09:12:47.648302)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um tipo de dado INTERVAL em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite calcular o intervalo entre datas ou horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é um tipo de dado DATETIME em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinar data e hora em um único tipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que os valores do tipo texto são case sensitive no SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque diferenciam maiúsculas de minúsculas, ao contrário das palavras-chaves SQL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como um arquivo é representado em um banco de dados SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como um conjunto de bits armazenados em uma coluna do tipo BLOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que significa FLOAT(9,3) em sql?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um número real com precisão de 9 dígitos e escala de 3 dígitos após o ponto decimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é DDL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Definition Language (Linguagem de Definição de Dados) é um subconjunto de comandos SQL utilizados para definir ou descrever um esquema de um banco de dados, permitindo criar ou modificar a estrutura de objetos de uma base de dados relacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublinguagem DDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os principais comandos da DDL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve o comando CREATE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando CREATE é utilizado para criar tabelas e outros objetos em um banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve o comando DROP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando DROP é utilizado para excluir uma tabela ou outros objetos existentes em  um banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve o comando TRUNCATE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando TRUNCATE é utilizado para apagar todos os dados de uma tabela, mas mantendo a estrutura da tabela intacta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve o comando ALTER?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando ALTER é utilizado para adicionar, deletar ou modificar colunas de uma tabela existente, assim como para modificar restrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve o comando RENAME?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando RENAME é utilizado para renomear uma tabela em um banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é a sintaxe básica do comando CREATE TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE NOME_DA_TABELA (NOME_COLUNA1, TIPO_DE_DADO, RESTRIÇÕES, NOME_COLUNA2, TIPO_DE_DADO, RESTRIÇÕES, …);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando CREATE TABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE ALUNO (NOME VARCHAR(20) NOT NULL, CPF INT PRIMARY KEY, SEXO CHAR(1) NOT NULL, DATA_NASCIMENTO, DATE NOT NUL, CIDADE VARCHAR(50) NOT NULL, VALOR_PAGO INT NOT NULL);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que significa VARCHAR(20) em uma definição de coluna?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(20) significa que a coluna pode armazenar até 20 caracteres de texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como criar uma tabela a partis de outra tabela existente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE NOME_TABELA_NOVA AS SELECT NOME_COLUNA1, NOME_COLUNA2, … FROM NOME_TABELA_ANTIGA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando DROP TABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE ALUNO_ESCOLA_NOVA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando TRUNCATE TABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNCATE TABLE ALUNO_ESCOLA_NOVA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar uma coluna a uma tabelas existente  usando o comando ALTER TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA ADD COLUMN NOME_COLUNA TIPO_DE_DADO;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando ALTER TABLE para adicionar uma coluna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ALUNO ADD COLUMN EMAIL VARCHAR(255);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como excluir uma coluna de uma tabela existente usando o comando ALTER TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA DROP COLUMN NOME_COLUNA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando ALTER TABLE para excluir uma coluna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ALUNO DROP COLUMN SEXO;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como renomear uma tabela existente usando o comando RENAME TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME TABLE NOME_DA_TABELA TO NOVO_NOME_DA_TABELA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando RENAME TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME TABLE ALUNO TO ALUNO_ESTRATEGIA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como renomear uma tabela existente usando o comando ALTER TABLE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA RENAME TO NOVO_NOME_DA_TABELA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são restrições (constraints) em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrições são um conjunto de limitações utilizadas para especificar regras para os dados em uma tabela de um banco de dados relacional, garantindo a precisão e a confiabilidade dos dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as principais restrições disponíveis em SQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL, UNIQUE, PRIMARY KEY, FOREIGN KEY, CHECK, DEFAULT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve a restrição NOT NULL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restrição NOT NULL garante que uma coluna não possa ter um valor nulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como definir uma coluna como NOT NULL ao criar uma tabela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE NOME_DA_TABELA (NOME_COLUNA TIPO_DE_DADO NOT NULL, …);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo do comando ALTER TABLE para adicionar a restrição NOT NULL a uma coluna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ALUNO MODIFY CIDADE VARCHAR(50) NOT NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é restrição UNIQUE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restrição UNIQUE garante que todos os valores de uma coluna sejam diferentes entre si.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar a restrição UNIQUE a uma coluna em uma tabela pré-existente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA ADD UNIQUE (NOME_DA_COLUNA);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve a restrição PRIMARY KEY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restrição PRIMARY KEY garante que todos os valores em uma coluna sejam diferentes entre si e não nulos, identificando unicamente cada registro de uma tabela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar a restrição PRIMARY KEY a uma coluna em uma tabela pré-existente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA ADD PRIMARY_KEY (NOME_DA_COLUNA1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é uma chave estrangeira (FOREIGN KEY)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma chave estrangeira (FOREIGN KEY) é uma coluna ou conjunto de colunas em uma tabela que referencia a chave primária de outra tabela, estabelecendo uma relação entre as tabelas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que acontece quando um registro referenciado por uma chave estrangeira é deletado da tabela pai?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se um registro referenciado por uma chave estrangeira é deletado da tabela pai, os registros correspondentes na tabela filha ficarão sem referência, a menos que a cláusula ON DELETE CASCADE seja utilizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve a cláusula ON DELETE CASCADE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cláusula ON DELETE CASCADE obriga a exclusão dos registros correspondentes da tabela filha quando um registro referenciado na tabela pai é excluído.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar a cláusula ON DELETE CASCADE ao definir uma chave estrangeira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABELA NOME_DA_TABELA(NOME_COLUNA1 TIPO_DE_DADO, CONSTRAINT NOME_DA_RESTRICAO FOREIGN KEY (NOME_COLUNA1) REFERENCES TABELA_REFERENCIADA(CHAVE) ON DELETE CASCADA);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a restrição CHECK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restrição CHECK é utilizada para limitar o intervalo de valores que pode ser inserido em uma coluna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar uma restrição CHECK a uma coluna em uma tabela pré-existente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA ADD CHECK (CONDICAO);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que serve a restrição DEFAULT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restrição DEFAULT é utilizada para configurar um valor padrão para uma coluna. Esse valor é adicionado em todos os novos registros, caso nenhum outro valor tenha sido especificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como definir uma restrição DEFAULT ao criar uma tabela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE NOME_DA_TABELA (NOME_COLUNA TIPO_DE_DADO  DEFAULT VALOR, …);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como adicionar uma restrição DEFAULT a uma coluna em uma tabela pré-existente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE NOME_DA_TABELA ALTER COLUMN NOME_COLUNA SET DEFAULT VALOR;</t>
   </si>
 </sst>
 </file>
@@ -290,7 +713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +750,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +807,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +826,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -587,10 +1020,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1258,6 +1691,12 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1266,6 +1705,12 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C54" s="4" t="s">
         <v>6</v>
       </c>
@@ -1274,6 +1719,12 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1281,12 +1732,916 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
